--- a/resources/practice.xlsx
+++ b/resources/practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\Desktop\Experiment Neurolinguïstiek\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D412AE-5B6B-407D-8779-59FA86EBAD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC356DE-8AB6-44ED-9442-42247320151D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>target</t>
   </si>
@@ -51,9 +51,6 @@
     <t>prime_audio</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>practice</t>
   </si>
   <si>
@@ -91,13 +88,28 @@
   </si>
   <si>
     <t>schulling</t>
+  </si>
+  <si>
+    <t>stimType</t>
+  </si>
+  <si>
+    <t>stimID</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +123,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,11 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,148 +470,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:N5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:C1">
+  <conditionalFormatting sqref="C1:D1">
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>

--- a/resources/practice.xlsx
+++ b/resources/practice.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marie\Desktop\Experiment Neurolinguïstiek\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Desktop\EXP Neurolinguistics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC356DE-8AB6-44ED-9442-42247320151D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7CD1A-BB24-4FDF-B7CD-C70A7D53036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -473,22 +484,22 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -526,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -557,8 +568,16 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT(C2,".wav")</f>
+        <v>pippen.wav</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xlfn.CONCAT(D2,".wav")</f>
+        <v>kaas.wav</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -589,8 +608,16 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K4" si="0">_xlfn.CONCAT(C3,".wav")</f>
+        <v>beer.wav</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L4" si="1">_xlfn.CONCAT(D3,".wav")</f>
+        <v>demel.wav</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -620,6 +647,14 @@
       </c>
       <c r="J4" t="s">
         <v>18</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>schulling.wav</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>mand.wav</v>
       </c>
     </row>
   </sheetData>

--- a/resources/practice.xlsx
+++ b/resources/practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Desktop\EXP Neurolinguistics\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medej\Documents\EXP Neurolinguistics\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7CD1A-BB24-4FDF-B7CD-C70A7D53036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B1DD51-9D5E-44E4-A673-3A8739166090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
